--- a/Statistical analyses/Tukey posthoc/PPO/Km, timePoint x Vegetation.xlsx
+++ b/Statistical analyses/Tukey posthoc/PPO/Km, timePoint x Vegetation.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LMAOXD\Documents\UCI undergrad\Bio-ESS 199\Microbial enzyme activity in leaf litter\Statistical analyses\Tukey posthoc\PPO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58492618-6BEE-4F31-9B8D-EE4F6EA11986}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="10968" yWindow="3216" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Km" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -64,8 +70,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,12 +88,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -117,17 +129,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -174,7 +195,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -206,9 +227,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -240,6 +279,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -415,14 +472,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,7 +504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -462,36 +521,36 @@
         <v>-0.7340000000000001</v>
       </c>
       <c r="F2">
-        <v>0.475</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>0.6943</v>
-      </c>
-      <c r="D3">
-        <v>0.0127</v>
-      </c>
-      <c r="E3">
-        <v>0.0898</v>
-      </c>
-      <c r="F3">
+      <c r="C3" s="2">
+        <v>0.69430000000000003</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>8.9800000000000005E-2</v>
+      </c>
+      <c r="F3" s="2">
         <v>1.2988</v>
       </c>
-      <c r="G3" t="b">
+      <c r="G3" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -499,22 +558,22 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>-0.0949</v>
+        <v>-9.4899999999999998E-2</v>
       </c>
       <c r="D4">
         <v>0.9</v>
       </c>
       <c r="E4">
-        <v>-0.6994</v>
+        <v>-0.69940000000000002</v>
       </c>
       <c r="F4">
-        <v>0.5096000000000001</v>
+        <v>0.50960000000000005</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -522,22 +581,22 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>0.205</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="D5">
         <v>0.9</v>
       </c>
       <c r="E5">
-        <v>-0.3825</v>
+        <v>-0.38250000000000001</v>
       </c>
       <c r="F5">
-        <v>0.7925</v>
+        <v>0.79249999999999998</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -551,16 +610,16 @@
         <v>0.9</v>
       </c>
       <c r="E6">
-        <v>-0.4339</v>
+        <v>-0.43390000000000001</v>
       </c>
       <c r="F6">
-        <v>0.7751</v>
+        <v>0.77510000000000001</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -568,22 +627,22 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>-0.0391</v>
+        <v>-3.9100000000000003E-2</v>
       </c>
       <c r="D7">
         <v>0.9</v>
       </c>
       <c r="E7">
-        <v>-0.6435999999999999</v>
+        <v>-0.64359999999999995</v>
       </c>
       <c r="F7">
-        <v>0.5654</v>
+        <v>0.56540000000000001</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -597,39 +656,39 @@
         <v>0.9</v>
       </c>
       <c r="E8">
-        <v>-0.7726</v>
+        <v>-0.77259999999999995</v>
       </c>
       <c r="F8">
-        <v>0.4364</v>
+        <v>0.43640000000000001</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
-        <v>0.8238</v>
-      </c>
-      <c r="D9">
-        <v>0.0013</v>
-      </c>
-      <c r="E9">
-        <v>0.2193</v>
-      </c>
-      <c r="F9">
-        <v>1.4283</v>
-      </c>
-      <c r="G9" t="b">
+      <c r="C9" s="2">
+        <v>0.82379999999999998</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.21929999999999999</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1.4282999999999999</v>
+      </c>
+      <c r="G9" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -637,13 +696,13 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.0347</v>
+        <v>3.4700000000000002E-2</v>
       </c>
       <c r="D10">
         <v>0.9</v>
       </c>
       <c r="E10">
-        <v>-0.5698</v>
+        <v>-0.56979999999999997</v>
       </c>
       <c r="F10">
         <v>0.6391</v>
@@ -652,7 +711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -660,22 +719,22 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.3345</v>
+        <v>0.33450000000000002</v>
       </c>
       <c r="D11">
-        <v>0.6306</v>
+        <v>0.63060000000000005</v>
       </c>
       <c r="E11">
         <v>-0.253</v>
       </c>
       <c r="F11">
-        <v>0.922</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -683,22 +742,22 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.3002</v>
+        <v>0.30020000000000002</v>
       </c>
       <c r="D12">
-        <v>0.7625999999999999</v>
+        <v>0.76259999999999994</v>
       </c>
       <c r="E12">
-        <v>-0.3043</v>
+        <v>-0.30430000000000001</v>
       </c>
       <c r="F12">
-        <v>0.9046999999999999</v>
+        <v>0.90469999999999995</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -706,22 +765,22 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.0905</v>
+        <v>9.0499999999999997E-2</v>
       </c>
       <c r="D13">
         <v>0.9</v>
       </c>
       <c r="E13">
-        <v>-0.514</v>
+        <v>-0.51400000000000001</v>
       </c>
       <c r="F13">
-        <v>0.695</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -729,45 +788,45 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>-0.0385</v>
+        <v>-3.85E-2</v>
       </c>
       <c r="D14">
         <v>0.9</v>
       </c>
       <c r="E14">
-        <v>-0.643</v>
+        <v>-0.64300000000000002</v>
       </c>
       <c r="F14">
-        <v>0.5660000000000001</v>
+        <v>0.56600000000000006</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C15">
-        <v>-0.7892</v>
-      </c>
-      <c r="D15">
-        <v>0.0024</v>
-      </c>
-      <c r="E15">
-        <v>-1.3937</v>
-      </c>
-      <c r="F15">
+      <c r="C15" s="2">
+        <v>-0.78920000000000001</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="E15" s="2">
+        <v>-1.3936999999999999</v>
+      </c>
+      <c r="F15" s="2">
         <v>-0.1847</v>
       </c>
-      <c r="G15" t="b">
+      <c r="G15" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -775,7 +834,7 @@
         <v>11</v>
       </c>
       <c r="C16">
-        <v>-0.4893</v>
+        <v>-0.48930000000000001</v>
       </c>
       <c r="D16">
         <v>0.1774</v>
@@ -784,13 +843,13 @@
         <v>-1.0768</v>
       </c>
       <c r="F16">
-        <v>0.09810000000000001</v>
+        <v>9.8100000000000007E-2</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -798,68 +857,68 @@
         <v>12</v>
       </c>
       <c r="C17">
-        <v>-0.5237000000000001</v>
+        <v>-0.52370000000000005</v>
       </c>
       <c r="D17">
-        <v>0.1412</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="E17">
-        <v>-1.1282</v>
+        <v>-1.1282000000000001</v>
       </c>
       <c r="F17">
-        <v>0.0808</v>
+        <v>8.0799999999999997E-2</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C18">
-        <v>-0.7334000000000001</v>
-      </c>
-      <c r="D18">
-        <v>0.0066</v>
-      </c>
-      <c r="E18">
-        <v>-1.3379</v>
-      </c>
-      <c r="F18">
-        <v>-0.1289</v>
-      </c>
-      <c r="G18" t="b">
+      <c r="C18" s="2">
+        <v>-0.73340000000000005</v>
+      </c>
+      <c r="D18" s="2">
+        <v>6.6E-3</v>
+      </c>
+      <c r="E18" s="2">
+        <v>-1.3379000000000001</v>
+      </c>
+      <c r="F18" s="2">
+        <v>-0.12889999999999999</v>
+      </c>
+      <c r="G18" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C19">
-        <v>-0.8624000000000001</v>
-      </c>
-      <c r="D19">
-        <v>0.001</v>
-      </c>
-      <c r="E19">
-        <v>-1.4669</v>
-      </c>
-      <c r="F19">
-        <v>-0.2579</v>
-      </c>
-      <c r="G19" t="b">
+      <c r="C19" s="2">
+        <v>-0.86240000000000006</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="E19" s="2">
+        <v>-1.4669000000000001</v>
+      </c>
+      <c r="F19" s="2">
+        <v>-0.25790000000000002</v>
+      </c>
+      <c r="G19" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -870,19 +929,19 @@
         <v>0.2999</v>
       </c>
       <c r="D20">
-        <v>0.7374000000000001</v>
+        <v>0.73740000000000006</v>
       </c>
       <c r="E20">
-        <v>-0.2876</v>
+        <v>-0.28760000000000002</v>
       </c>
       <c r="F20">
-        <v>0.8873</v>
+        <v>0.88729999999999998</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -890,13 +949,13 @@
         <v>12</v>
       </c>
       <c r="C21">
-        <v>0.2655</v>
+        <v>0.26550000000000001</v>
       </c>
       <c r="D21">
-        <v>0.8663999999999999</v>
+        <v>0.86639999999999995</v>
       </c>
       <c r="E21">
-        <v>-0.339</v>
+        <v>-0.33900000000000002</v>
       </c>
       <c r="F21">
         <v>0.87</v>
@@ -905,7 +964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -913,13 +972,13 @@
         <v>13</v>
       </c>
       <c r="C22">
-        <v>0.0558</v>
+        <v>5.5800000000000002E-2</v>
       </c>
       <c r="D22">
         <v>0.9</v>
       </c>
       <c r="E22">
-        <v>-0.5487</v>
+        <v>-0.54869999999999997</v>
       </c>
       <c r="F22">
         <v>0.6603</v>
@@ -928,7 +987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -936,22 +995,22 @@
         <v>14</v>
       </c>
       <c r="C23">
-        <v>-0.0732</v>
+        <v>-7.3200000000000001E-2</v>
       </c>
       <c r="D23">
         <v>0.9</v>
       </c>
       <c r="E23">
-        <v>-0.6777</v>
+        <v>-0.67769999999999997</v>
       </c>
       <c r="F23">
-        <v>0.5313</v>
+        <v>0.53129999999999999</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -959,22 +1018,22 @@
         <v>12</v>
       </c>
       <c r="C24">
-        <v>-0.0343</v>
+        <v>-3.4299999999999997E-2</v>
       </c>
       <c r="D24">
         <v>0.9</v>
       </c>
       <c r="E24">
-        <v>-0.6218</v>
+        <v>-0.62180000000000002</v>
       </c>
       <c r="F24">
-        <v>0.5531</v>
+        <v>0.55310000000000004</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -982,22 +1041,22 @@
         <v>13</v>
       </c>
       <c r="C25">
-        <v>-0.244</v>
+        <v>-0.24399999999999999</v>
       </c>
       <c r="D25">
         <v>0.9</v>
       </c>
       <c r="E25">
-        <v>-0.8315</v>
+        <v>-0.83150000000000002</v>
       </c>
       <c r="F25">
-        <v>0.3434</v>
+        <v>0.34339999999999998</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -1008,19 +1067,19 @@
         <v>-0.373</v>
       </c>
       <c r="D26">
-        <v>0.5118</v>
+        <v>0.51180000000000003</v>
       </c>
       <c r="E26">
-        <v>-0.9605</v>
+        <v>-0.96050000000000002</v>
       </c>
       <c r="F26">
-        <v>0.2144</v>
+        <v>0.21440000000000001</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1034,16 +1093,16 @@
         <v>0.9</v>
       </c>
       <c r="E27">
-        <v>-0.8142</v>
+        <v>-0.81420000000000003</v>
       </c>
       <c r="F27">
-        <v>0.3948</v>
+        <v>0.39479999999999998</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1054,19 +1113,19 @@
         <v>-0.3387</v>
       </c>
       <c r="D28">
-        <v>0.6471</v>
+        <v>0.64710000000000001</v>
       </c>
       <c r="E28">
-        <v>-0.9432</v>
+        <v>-0.94320000000000004</v>
       </c>
       <c r="F28">
-        <v>0.2658</v>
+        <v>0.26579999999999998</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -1080,10 +1139,10 @@
         <v>0.9</v>
       </c>
       <c r="E29">
-        <v>-0.7335</v>
+        <v>-0.73350000000000004</v>
       </c>
       <c r="F29">
-        <v>0.4755</v>
+        <v>0.47549999999999998</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
